--- a/excel-vba/Фамилия-инициалы.xlsx
+++ b/excel-vba/Фамилия-инициалы.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Ф.И.О.</t>
   </si>
@@ -457,7 +457,7 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -900,71 +900,31 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
-      <c r="G11" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H11" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I11" s="4" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J11" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K11" s="4" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L11" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N11" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O11" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="P11" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
-      <c r="G12" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H12" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I12" s="4" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J12" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K12" s="4" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
       <c r="L12" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f>IF($B12="", "", MID($B12, 1, SEARCH(" ", $B12)) &amp; MID($B12, SEARCH(" ", $B12)+1, 1) &amp; "." &amp; MID($B12, SEARCH(" ", $B12, SEARCH(" ", $B12)+1)+1, 1) &amp; ".")</f>
+        <v>Фамилия И.О.</v>
       </c>
       <c r="N12" s="4" t="str">
         <f t="shared" si="6"/>
@@ -983,6 +943,6 @@
   <autoFilter ref="B1:P1"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.19685039370078741" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>